--- a/src/docs/preguntas-risk-analyzer.xlsx
+++ b/src/docs/preguntas-risk-analyzer.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amontorio.ext\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\amontorioext\LAB IA\customer-contract-risk-analyzer\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{899B6F84-4EF4-4DE7-934D-302B5CEC30CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD63FA5-2978-4A48-A41E-96E667F30174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preguntas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Número de Pregunta</t>
   </si>
@@ -36,9 +35,6 @@
 Termination Clause</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there a clause that allows the customer to terminate the contract early and/or with a certain notice?  </t>
-  </si>
-  <si>
     <t>Likewise, is there a clause that allows MAXAM to terminate the contract early and/or with a certain notice? 
 Detail the implications of this (term, compensation, etc.).</t>
   </si>
@@ -47,16 +43,9 @@
 (if aplicable)</t>
   </si>
   <si>
-    <t>Is there an exclusivity clause? Detail its content and implications.</t>
-  </si>
-  <si>
     <t>Purchasing Products</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there a purchase (or sale) clause of a minimum amount per year (or during the term of the contract)? 
-Detail its content and communication procedure between the parties for this purpose. </t>
-  </si>
-  <si>
     <t xml:space="preserve">In the case of sale of products by MAXAM, is it established or deduced that the product sold has a certain origin of production (country/region)? </t>
   </si>
   <si>
@@ -64,15 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Payment Term: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the event of a delay or non-payment of an invoice, is there a duty of compensation to the other party? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the compensation percentage? </t>
-  </si>
-  <si>
-    <t>Does the contract have the option of offsetting invoices? In what cases?</t>
   </si>
   <si>
     <t xml:space="preserve">If during the term of the contract new services are developed or in greater quantity and proportion than those described, is there an option to modify the rates? </t>
@@ -127,17 +107,7 @@
     <t>Employee replacement</t>
   </si>
   <si>
-    <t xml:space="preserve">Matrix Responsibility </t>
-  </si>
-  <si>
-    <t>Is there a liability or Liquidated Damages clause? 
-Detail its contents, incorporating maximum limits of liability, where appropriate.</t>
-  </si>
-  <si>
     <t>Are indirect and consequential damages excluded?</t>
-  </si>
-  <si>
-    <t>Corporate Guarantees</t>
   </si>
   <si>
     <t>Is there a requirement for any of the parties to provide a corporate guarantee or any other financial guarantee?
@@ -196,6 +166,47 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Duration and Early Termination / or 
+Termination Clause</t>
+  </si>
+  <si>
+    <t>What is the start and end date of the contract? Is the term clearly stated in a specific clause?
+Is there a clause that allows the customer to terminate the contract early and/or with a certain notice?  
+What are the consequences of the termination? (Reference the clause and detail legal/financial implications)</t>
+  </si>
+  <si>
+    <t>Is there an exclusivity clause for the customer to purchase Maxam? What is the scope, duration and commercial implications?</t>
+  </si>
+  <si>
+    <t>Does the contract include a minimum purchase or sales volume during the contract period? (Detail amounts, terms, and consequences for non-compliance)</t>
+  </si>
+  <si>
+    <t>In the event of a delay or non-payment of an invoice, is there a duty of compensation to the other party? Include percentage and calculation method).</t>
+  </si>
+  <si>
+    <t>Does the contract have the option of offsetting invoices? Under what conditions?</t>
+  </si>
+  <si>
+    <t>Is there a penalties, liability or Liquidated Damages clause? 
+Detail its contents, incorporating maximum limits of liability, where appropriate.</t>
+  </si>
+  <si>
+    <t>Penalties, Liability, and Insurance</t>
+  </si>
+  <si>
+    <t>Guarantees and Risk Allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any unusual, unclear, or non-standard clauses in this contract that could materially impact MAXAM’s legal, financial, operational, or compliance position? If so, please highlight the specific clause(s), explain the potential risks, and indicate whether they should be revised, negotiated, or rejected entirely.
+</t>
+  </si>
+  <si>
+    <t>General Content</t>
+  </si>
+  <si>
+    <t>What is the compensation percentage?</t>
   </si>
 </sst>
 </file>
@@ -236,9 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -278,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5509C31F-F125-453F-8E3E-0DA387F48A71}" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30" xr:uid="{5509C31F-F125-453F-8E3E-0DA387F48A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5509C31F-F125-453F-8E3E-0DA387F48A71}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{5509C31F-F125-453F-8E3E-0DA387F48A71}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{24F431EA-3564-4372-AEFE-2D5D19C159B9}" name="Número de Pregunta"/>
     <tableColumn id="2" xr3:uid="{433986AB-3E41-41E2-95BE-93E91959D845}" name="Pregunta" dataDxfId="0"/>
@@ -575,17 +589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="139.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,21 +614,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -622,13 +636,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -636,27 +650,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,13 +678,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -692,13 +706,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -706,13 +720,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -720,27 +734,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -748,13 +762,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -762,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -776,13 +790,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -790,13 +804,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -804,13 +818,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -818,13 +832,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -832,13 +846,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -846,13 +860,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -860,13 +874,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -874,13 +888,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -888,13 +902,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -902,13 +916,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -916,13 +930,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -930,13 +944,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -944,13 +958,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -958,13 +972,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -972,13 +986,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -986,13 +1000,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1000,25 +1014,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{75a3e26d-0494-4416-b3b0-eac562175785}" enabled="1" method="Standard" siteId="{f05445fb-6440-4e1b-b12c-9da4c2d3ab0b}" contentBits="0" removed="0"/>
+  <clbl:label id="{75a3e26d-0494-4416-b3b0-eac562175785}" enabled="1" method="Standard" siteId="{f05445fb-6440-4e1b-b12c-9da4c2d3ab0b}" removed="0"/>
 </clbl:labelList>
 </file>